--- a/Dokumente/Zeiterfassung/Zeiterfassung_Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Huber.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199D9DEC-4377-4CE8-9719-1566E922386A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>Stunden</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Art</t>
   </si>
@@ -60,13 +58,22 @@
   </si>
   <si>
     <t>Bearbeitung der Boards in Trello, allgemeine Organisatorische Tätigkeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stunden </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +121,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -138,10 +152,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -164,8 +179,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -204,17 +224,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle356" displayName="Tabelle356" ref="B6:G46" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B6:G46"/>
-  <tableColumns count="6">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="6" name="Stunden" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle356" displayName="Tabelle356" ref="B6:H46" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zeit " dataDxfId="0">
       <calculatedColumnFormula>F7-E7</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="1" xr3:uid="{3CF14FAA-551A-496F-A6E3-9C1763D08001}" name="Stunden "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -516,11 +537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD141"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,49 +555,52 @@
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
       </c>
       <c r="D7" s="11">
         <v>43178</v>
@@ -591,13 +615,16 @@
         <f t="shared" ref="G7" si="0">F7-E7</f>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="11">
         <v>43179</v>
@@ -612,8 +639,11 @@
         <f t="shared" ref="G8:G45" si="1">F8-E8</f>
         <v>9.375E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="12">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -622,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -631,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -640,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -649,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -658,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -667,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -676,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -829,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -838,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -847,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -856,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -865,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -874,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -883,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -892,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -901,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -910,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -919,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -928,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -937,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -946,17 +976,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="10">
-        <f>SUM(G7:G45)</f>
-        <v>0.15625</v>
+      <c r="G46" s="10"/>
+      <c r="H46" s="13">
+        <f>SUM(H7:H45)</f>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Huber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199D9DEC-4377-4CE8-9719-1566E922386A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05778DC5-DFF3-420B-8C33-4B2114524398}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Art</t>
   </si>
@@ -64,6 +64,24 @@
   </si>
   <si>
     <t xml:space="preserve">Stunden </t>
+  </si>
+  <si>
+    <t>KW11</t>
+  </si>
+  <si>
+    <t>KW12</t>
+  </si>
+  <si>
+    <t>KW 13</t>
+  </si>
+  <si>
+    <t>KW14</t>
+  </si>
+  <si>
+    <t>KW15</t>
+  </si>
+  <si>
+    <t>Gruppen Meeting</t>
   </si>
 </sst>
 </file>
@@ -73,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +146,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -143,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,12 +176,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -181,6 +226,32 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -224,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle356" displayName="Tabelle356" ref="B6:H46" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle356" displayName="Tabelle356" ref="B6:H47" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B6:H47" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
@@ -538,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H46"/>
+  <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,24 +626,24 @@
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,91 +666,140 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="11">
-        <v>43178</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.5625</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" ref="G7" si="0">F7-E7</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="25">
+        <f>F7-E7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11">
+        <v>43178</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" ref="G8" si="0">F8-E8</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="23">
         <v>43179</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="18">
         <v>0.75</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="18">
         <v>0.84375</v>
       </c>
-      <c r="G8" s="7">
-        <f t="shared" ref="G8:G45" si="1">F8-E8</f>
+      <c r="G9" s="18">
+        <f t="shared" ref="G9:G46" si="1">F9-E9</f>
         <v>9.375E-2</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H9" s="19">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11">
+        <v>43202</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.5</v>
+      </c>
       <c r="G12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -688,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -697,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -706,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -977,17 +1097,26 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="13">
-        <f>SUM(H7:H45)</f>
-        <v>3.75</v>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="13">
+        <f>SUM(H8:H46)</f>
+        <v>5.75</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Huber.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05778DC5-DFF3-420B-8C33-4B2114524398}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAEFAC9-7BE4-4909-A8B3-75012267D8C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Art</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Gruppen Meeting</t>
+  </si>
+  <si>
+    <t>Ausarbeitung Grundfunktionen</t>
+  </si>
+  <si>
+    <t>Ausarbeitung der Grundfunktionen: Sollzeit/Istzeiterfassung</t>
   </si>
 </sst>
 </file>
@@ -611,39 +617,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="81.5546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -684,7 +690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -711,7 +717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
@@ -737,7 +743,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="22"/>
@@ -755,7 +761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="22"/>
@@ -773,7 +779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -799,16 +805,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11">
+        <v>43205</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G13" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+        <v>0.125</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -817,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -826,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -835,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -844,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -853,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -862,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -871,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -880,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -889,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -898,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -907,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -916,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -925,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -934,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -943,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -952,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -961,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -970,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -979,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -988,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -997,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -1006,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -1015,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -1024,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -1033,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -1042,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -1051,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -1060,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -1069,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -1078,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -1087,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -1096,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -1105,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1137,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="13">
         <f>SUM(H8:H46)</f>
-        <v>5.75</v>
+        <v>8.75</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Huber.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAEFAC9-7BE4-4909-A8B3-75012267D8C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C0E4D6-13AD-4287-8C6A-7EF5D19D8F91}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Art</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Ausarbeitung der Grundfunktionen: Sollzeit/Istzeiterfassung</t>
+  </si>
+  <si>
+    <t>KW16</t>
   </si>
 </sst>
 </file>
@@ -618,38 +621,38 @@
   <dimension ref="B2:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="81.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="81.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -690,7 +693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -717,7 +720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
@@ -743,7 +746,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="22"/>
@@ -761,7 +764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="22"/>
@@ -779,7 +782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -805,40 +808,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="23">
         <v>43205</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="18">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="18">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="18">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="11">
+        <v>43208</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="G14" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="H14" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -847,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -856,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -865,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -874,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -883,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -892,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -901,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -910,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -919,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -928,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -937,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -946,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -955,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -964,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -973,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -982,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -991,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1000,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -1009,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -1018,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -1027,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -1036,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -1045,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -1054,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -1063,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -1072,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -1081,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -1090,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -1099,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -1108,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -1117,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -1126,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>5</v>
       </c>
@@ -1137,7 +1160,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="13">
         <f>SUM(H8:H46)</f>
-        <v>8.75</v>
+        <v>11.25</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Huber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C0E4D6-13AD-4287-8C6A-7EF5D19D8F91}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979CBD29-1398-4E59-BCBD-C00D50EE0E8B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +801,7 @@
       <c r="G12" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="12">
         <v>2</v>
       </c>
       <c r="J12" s="21" t="s">
@@ -828,7 +828,7 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="19">
         <v>3</v>
       </c>
       <c r="I13" s="15"/>
